--- a/data/trans_camb/P11_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P11_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>-4,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,68</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,51</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,92</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,19</t>
+          <t>5,25</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>2,69</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-0,07</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2,14</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3,71</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 7,59</t>
+          <t>-18,46; 4,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 17,88</t>
+          <t>-13,73; 10,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 25,07</t>
+          <t>-9,81; 21,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 16,43</t>
+          <t>-5,28; 13,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 13,32</t>
+          <t>-4,33; 15,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 12,92</t>
+          <t>-6,32; 11,65</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-7,28; 6,29</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-5,87; 9,7</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-4,32; 12,94</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-26,08%</t>
+          <t>-64,09%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>67,09%</t>
+          <t>-17,21%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>115,27%</t>
+          <t>66,31%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>64,89%</t>
+          <t>85,47%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>51,69%</t>
+          <t>123,96%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>62,72%</t>
+          <t>63,49%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-1,24%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>39,72%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>68,79%</t>
         </is>
       </c>
     </row>
@@ -720,27 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-54,38; 749,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-25,61; 498,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-31,91; 390,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,34; 278,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-26,15; 273,54</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-79,78; 298,52</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-65,66; 476,05</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-59,8; 647,33</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-10,4</t>
+          <t>-15,91</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-14,18</t>
+          <t>-23,93</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>-21,03</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,8</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-6,66</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-8,98</t>
+          <t>-7,77</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-7,34</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-11,7</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-14,79</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-29,46; 6,62</t>
+          <t>-43,48; 7,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-34,62; 1,86</t>
+          <t>-52,48; -3,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,02; 12,24</t>
+          <t>-49,04; 2,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,72; 11,71</t>
+          <t>-16,72; 20,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-18,91; 5,7</t>
+          <t>-16,31; 19,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-21,39; 3,3</t>
+          <t>-25,47; 8,8</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-26,05; 7,49</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-31,05; 2,21</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-33,44; -0,33</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-31,97%</t>
+          <t>-41,67%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-43,58%</t>
+          <t>-62,68%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-6,86%</t>
+          <t>-55,09%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-7,44%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-18,94%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-25,55%</t>
+          <t>-26,81%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-21,83%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-34,8%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-43,98%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-69,38; 33,23</t>
+          <t>-80,91; 27,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-75,47; 15,51</t>
+          <t>-88,29; -3,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-37,75; 41,62</t>
+          <t>-86,18; 9,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-38,84; 37,3</t>
+          <t>-43,34; 104,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-43,65; 21,55</t>
+          <t>-43,19; 98,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-49,12; 12,88</t>
+          <t>-68,94; 48,42</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-57,26; 30,74</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-68,01; 9,13</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-71,73; 0,85</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10,05</t>
+          <t>7,12</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,08</t>
+          <t>8,24</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>5,18</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,36</t>
+          <t>-4,64</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,04</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,75</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-0,66</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 27,17</t>
+          <t>-6,36; 20,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 26,9</t>
+          <t>-4,81; 22,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 7,48</t>
+          <t>-7,84; 19,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 9,43</t>
+          <t>-11,59; 10,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 12,77</t>
+          <t>-9,78; 12,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 13,62</t>
+          <t>-14,53; 6,07</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-6,52; 10,05</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-4,57; 12,59</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-9,49; 7,24</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>54,03%</t>
+          <t>52,74%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>48,85%</t>
+          <t>61,04%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-8,89%</t>
+          <t>38,34%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,5%</t>
+          <t>-6,33%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>19,38%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>22,36%</t>
+          <t>-25,68%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>12,49%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>23,0%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-4,02%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-28,68; 238,19</t>
+          <t>-36,6; 297,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-34,57; 226,16</t>
+          <t>-28,87; 309,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-46,19; 47,9</t>
+          <t>-44,92; 280,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-39,48; 61,42</t>
+          <t>-49,68; 75,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-21,74; 79,88</t>
+          <t>-42,45; 98,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-20,03; 88,34</t>
+          <t>-63,21; 50,47</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-32,4; 80,22</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-22,81; 102,28</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-45,91; 63,02</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,06</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>1,51</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1,26</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-0,45</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,9</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 13,34</t>
+          <t>-10,0; 9,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 9,79</t>
+          <t>-9,69; 9,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 10,37</t>
+          <t>-9,79; 10,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 8,69</t>
+          <t>-8,02; 11,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 9,63</t>
+          <t>-10,15; 8,94</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 7,31</t>
+          <t>-8,09; 11,22</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-5,66; 8,65</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-7,18; 6,4</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-5,8; 9,51</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>52,46%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>17,68%</t>
+          <t>-2,35%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>15,18%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>22,85%</t>
+          <t>-3,54%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>10,32%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>9,6%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-3,39%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>6,87%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-28,93; 225,79</t>
+          <t>-61,18; 164,89</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-47,51; 173,2</t>
+          <t>-59,49; 180,85</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-38,43; 85,8</t>
+          <t>-62,29; 184,44</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-42,14; 69,28</t>
+          <t>-42,3; 113,79</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-22,18; 90,5</t>
+          <t>-53,11; 89,72</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-32,13; 67,58</t>
+          <t>-43,66; 106,99</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-33,84; 94,45</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-44,09; 64,55</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-35,47; 94,47</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>-0,25</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,34</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,88</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-15,93; 12,01</t>
+          <t>-16,56; 22,96</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-13,89; 13,39</t>
+          <t>-17,86; 19,16</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 12,37</t>
+          <t>-17,68; 17,75</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 9,41</t>
+          <t>-15,09; 16,29</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 7,92</t>
+          <t>-16,1; 16,37</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 7,36</t>
+          <t>-15,25; 16,64</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-12,02; 14,56</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-11,8; 13,38</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-12,61; 12,54</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-9,89%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-1,89%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-6,83%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-1,37%</t>
+          <t>-0,47%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-4,32%</t>
+          <t>-1,27%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1,95%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>5,49%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>5,02%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-63,42; 100,43</t>
+          <t>-79,29; 348,15</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-53,64; 104,45</t>
+          <t>-70,51; 222,47</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-37,82; 87,01</t>
+          <t>-73,42; 236,96</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-50,93; 73,09</t>
+          <t>-55,23; 158,37</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-39,21; 52,96</t>
+          <t>-60,17; 149,8</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-41,06; 48,23</t>
+          <t>-59,68; 145,33</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-52,43; 123,23</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-51,01; 113,4</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-54,93; 107,34</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>-2,64</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>4,43</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>-4,73</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>-0,86</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 9,32</t>
+          <t>-16,5; 8,52</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 11,89</t>
+          <t>-15,41; 9,82</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-14,31; 12,36</t>
+          <t>-10,33; 18,52</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-14,68; 17,36</t>
+          <t>-15,67; 24,96</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 9,07</t>
+          <t>-15,43; 25,34</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 12,36</t>
+          <t>-22,81; 15,44</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-10,14; 12,66</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-10,26; 12,71</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-13,44; 11,86</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-3,71%</t>
+          <t>-31,64%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>-25,7%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-3,24%</t>
+          <t>32,53%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>14,99%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-2,71%</t>
+          <t>16,08%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>-17,14%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>2,43%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>5,21%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>-4,3%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-57,12; 104,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-50,35; 133,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-50,42; 78,18</t>
+          <t>-78,71; 557,19</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-53,48; 99,84</t>
+          <t>-42,24; 153,24</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-41,15; 65,1</t>
+          <t>-41,24; 146,12</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-37,81; 80,41</t>
+          <t>-64,18; 85,57</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-41,9; 93,41</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-42,22; 92,21</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-52,8; 88,83</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>-3,66</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-1,98</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-0,73</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-1,06</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>-1,93</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 6,42</t>
+          <t>-11,0; 3,85</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 6,22</t>
+          <t>-12,15; 2,63</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 5,43</t>
+          <t>-10,45; 4,56</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 4,82</t>
+          <t>-4,38; 6,44</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 4,08</t>
+          <t>-3,91; 7,25</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 3,91</t>
+          <t>-7,65; 3,67</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-5,65; 3,71</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-5,99; 3,58</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-6,85; 2,79</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>-16,52%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>-21,5%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>-10,56%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>-10,58%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-4,07%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-5,93%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>-10,76%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-26,52; 44,77</t>
+          <t>-47,9; 30,2</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-28,5; 46,47</t>
+          <t>-54,9; 21,84</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-19,42; 29,96</t>
+          <t>-46,17; 34,27</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-21,51; 25,05</t>
+          <t>-20,81; 41,51</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-16,27; 23,33</t>
+          <t>-17,8; 46,2</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-18,21; 22,82</t>
+          <t>-35,53; 24,35</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-26,77; 24,85</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-28,62; 22,92</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-33,39; 17,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
